--- a/EA Code/GKAH_EA_V1/GKAH_EA_V1/simulation study 1 month.xlsx
+++ b/EA Code/GKAH_EA_V1/GKAH_EA_V1/simulation study 1 month.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdeni\Documents\GitHub\Apiary\EA Code\GKAH_EA_V1\GKAH_EA_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F059566-1DB6-4D75-8C0B-00DB58222457}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F94B114-CB57-4B3F-B797-198AA7F2B986}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="3" xr2:uid="{F7A62366-4465-48DB-BA89-5BE59E326B32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="2" xr2:uid="{F7A62366-4465-48DB-BA89-5BE59E326B32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sell - CCI 100" sheetId="1" r:id="rId1"/>
@@ -12563,8 +12563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA253D8E-3371-4B51-9AAB-4C39C6C564BD}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13414,7 +13414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A815341-0A33-44CD-8962-121634EBE98A}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
